--- a/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{097041A1-A173-4C47-B422-2AAF98803CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFC9793-165F-421F-A105-EFB7A21AD8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6DA31135-578F-46C8-BC12-55B53B51A534}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E05359AD-3506-4011-A17B-1E7095E21DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,84 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>99,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>99,35%</t>
   </si>
   <si>
@@ -94,15 +157,6 @@
     <t>99,0%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>0,59%</t>
   </si>
   <si>
@@ -118,37 +172,37 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -202,60 +256,6 @@
     <t>2,4%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>99,21%</t>
   </si>
   <si>
@@ -295,6 +295,66 @@
     <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
     <t>99,4%</t>
   </si>
   <si>
@@ -325,34 +385,28 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
   </si>
   <si>
     <t>97,89%</t>
@@ -379,60 +433,6 @@
     <t>1,51%</t>
   </si>
   <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>73,32%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
     <t>99,19%</t>
   </si>
   <si>
@@ -472,6 +472,42 @@
     <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
     <t>98,6%</t>
   </si>
   <si>
@@ -496,22 +532,28 @@
     <t>0,72%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
   </si>
   <si>
     <t>99,34%</t>
@@ -536,48 +578,6 @@
   </si>
   <si>
     <t>1,14%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
   </si>
   <si>
     <t>99,63%</t>
@@ -999,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F31BADFF-BF6B-4CDB-BE37-12FAC9FF5B8E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228FB335-9451-4B95-9D3E-F94C425CB66C}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,10 +1117,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,40 +1132,40 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>310</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>193887</v>
+        <v>22724</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>62</v>
+      </c>
+      <c r="N4" s="7">
+        <v>48168</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>632</v>
-      </c>
-      <c r="N4" s="7">
-        <v>406029</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -1174,43 +1174,43 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>1276</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>1276</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1219,10 +1219,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1234,10 +1234,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1249,10 +1249,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1278,10 +1278,10 @@
         <v>126960</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1296,7 +1296,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1308,10 +1308,10 @@
         <v>242962</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1320,7 +1320,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1329,13 +1329,13 @@
         <v>673</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1359,13 +1359,13 @@
         <v>673</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1421,106 +1421,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="D10" s="7">
-        <v>203450</v>
+        <v>212142</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7">
+        <v>310</v>
+      </c>
+      <c r="I10" s="7">
+        <v>193887</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M10" s="7">
+        <v>632</v>
+      </c>
+      <c r="N10" s="7">
+        <v>406029</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="7">
-        <v>273</v>
-      </c>
-      <c r="I10" s="7">
-        <v>208582</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>573</v>
-      </c>
-      <c r="N10" s="7">
-        <v>412031</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7">
-        <v>4374</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>733</v>
+        <v>1276</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>5108</v>
+        <v>1276</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1529,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207824</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1544,10 +1544,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1559,10 +1559,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>580</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>417139</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1576,76 +1576,76 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>231</v>
       </c>
       <c r="D13" s="7">
-        <v>25444</v>
+        <v>149015</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I13" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N13" s="7">
-        <v>48168</v>
+        <v>286832</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1684,10 +1684,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1699,10 +1699,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1714,10 +1714,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1731,103 +1731,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>231</v>
+        <v>300</v>
       </c>
       <c r="D16" s="7">
-        <v>149015</v>
+        <v>203450</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="7">
+        <v>273</v>
+      </c>
+      <c r="I16" s="7">
+        <v>208582</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="7">
+        <v>573</v>
+      </c>
+      <c r="N16" s="7">
+        <v>412031</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>229</v>
-      </c>
-      <c r="I16" s="7">
-        <v>137817</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M16" s="7">
-        <v>460</v>
-      </c>
-      <c r="N16" s="7">
-        <v>286832</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>4374</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
       </c>
-      <c r="D17" s="7">
-        <v>642</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>733</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7</v>
+      </c>
+      <c r="N17" s="7">
+        <v>5108</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>642</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>71</v>
@@ -1839,10 +1839,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>306</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1854,10 +1854,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1869,10 +1869,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1904,7 +1904,7 @@
         <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>1015</v>
@@ -1916,7 +1916,7 @@
         <v>74</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>75</v>
@@ -1934,13 +1934,13 @@
         <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -1952,7 +1952,7 @@
         <v>78</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>79</v>
@@ -1970,7 +1970,7 @@
         <v>81</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -1982,7 +1982,7 @@
         <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>83</v>
@@ -2057,7 +2057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B6EFEA2-2631-4334-9E7F-6F4E2838A3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716634F3-36EE-4CD6-91FD-CB992A621379}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2175,10 +2175,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -2190,10 +2190,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>316</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>204742</v>
+        <v>20532</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>86</v>
@@ -2205,10 +2205,10 @@
         <v>11</v>
       </c>
       <c r="M4" s="7">
-        <v>637</v>
+        <v>52</v>
       </c>
       <c r="N4" s="7">
-        <v>426720</v>
+        <v>45987</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>88</v>
@@ -2223,7 +2223,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -2232,40 +2232,40 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>656</v>
+        <v>1841</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>92</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5" s="7">
-        <v>656</v>
+        <v>1841</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>93</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>94</v>
@@ -2277,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>221978</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2292,10 +2292,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>317</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205398</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2307,10 +2307,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>638</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>427376</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2342,7 +2342,7 @@
         <v>96</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7" s="7">
         <v>159</v>
@@ -2378,7 +2378,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
@@ -2390,7 +2390,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>101</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>102</v>
@@ -2479,106 +2479,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="D10" s="7">
-        <v>205839</v>
+        <v>221978</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>105</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>274</v>
+        <v>316</v>
       </c>
       <c r="I10" s="7">
-        <v>209554</v>
+        <v>204742</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>553</v>
+        <v>637</v>
       </c>
       <c r="N10" s="7">
-        <v>415393</v>
+        <v>426720</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1243</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>746</v>
+        <v>656</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1989</v>
+        <v>656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,10 +2587,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>207082</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2602,10 +2602,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="I12" s="7">
-        <v>210300</v>
+        <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2617,10 +2617,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>556</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>417382</v>
+        <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2634,52 +2634,52 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>253</v>
       </c>
       <c r="D13" s="7">
-        <v>25455</v>
+        <v>163936</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="I13" s="7">
-        <v>20532</v>
+        <v>154839</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M13" s="7">
-        <v>52</v>
+        <v>494</v>
       </c>
       <c r="N13" s="7">
-        <v>45987</v>
+        <v>318775</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>11</v>
@@ -2688,49 +2688,49 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2049</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="7">
-        <v>0</v>
-      </c>
-      <c r="D14" s="7">
-        <v>0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1841</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
       </c>
       <c r="N14" s="7">
-        <v>1841</v>
+        <v>2049</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>121</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>122</v>
@@ -2742,10 +2742,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2757,10 +2757,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>241</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2772,10 +2772,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>496</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2789,46 +2789,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="D16" s="7">
-        <v>163936</v>
+        <v>205839</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>209554</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="7">
-        <v>241</v>
-      </c>
-      <c r="I16" s="7">
-        <v>154839</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="N16" s="7">
-        <v>318775</v>
+        <v>415393</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>125</v>
@@ -2837,55 +2837,55 @@
         <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
         <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>2049</v>
+        <v>1243</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>746</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="M17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>2049</v>
+        <v>1989</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>129</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>130</v>
@@ -2897,10 +2897,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="D18" s="7">
-        <v>165985</v>
+        <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2912,10 +2912,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>241</v>
+        <v>275</v>
       </c>
       <c r="I18" s="7">
-        <v>154839</v>
+        <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2927,10 +2927,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N18" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -2986,19 +2986,19 @@
         <v>1446562</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
@@ -3037,13 +3037,13 @@
         <v>9315</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,7 +3115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2CA217-19B1-4B25-B83B-9D41F9A7B03B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4385B857-17A4-4BB3-B10D-B493C54F8C2A}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3233,25 +3233,25 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>331</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>223741</v>
+        <v>25574</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>144</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I4" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -3263,40 +3263,40 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N4" s="7">
-        <v>430988</v>
+        <v>48101</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7">
-        <v>618</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3305,28 +3305,28 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>618</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,10 +3335,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3350,10 +3350,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3365,10 +3365,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>666</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431606</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3382,7 +3382,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3397,7 +3397,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
@@ -3412,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -3427,7 +3427,7 @@
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -3436,7 +3436,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3445,13 +3445,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3460,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,52 +3537,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="D10" s="7">
-        <v>204377</v>
+        <v>223741</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="7">
+        <v>334</v>
+      </c>
+      <c r="I10" s="7">
+        <v>207247</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="7">
+        <v>665</v>
+      </c>
+      <c r="N10" s="7">
+        <v>430988</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="7">
-        <v>280</v>
-      </c>
-      <c r="I10" s="7">
-        <v>207420</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M10" s="7">
-        <v>568</v>
-      </c>
-      <c r="N10" s="7">
-        <v>411797</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>11</v>
@@ -3591,52 +3591,52 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1359</v>
+        <v>618</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>162</v>
+        <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>1359</v>
+        <v>618</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,10 +3645,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3660,10 +3660,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>207420</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3675,10 +3675,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>571</v>
+        <v>666</v>
       </c>
       <c r="N12" s="7">
-        <v>413156</v>
+        <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3692,76 +3692,76 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D13" s="7">
-        <v>25574</v>
+        <v>165914</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <v>259</v>
+      </c>
+      <c r="I13" s="7">
+        <v>155997</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="7">
+        <v>506</v>
+      </c>
+      <c r="N13" s="7">
+        <v>321911</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>24</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>54</v>
-      </c>
-      <c r="N13" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>168</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3770,25 +3770,25 @@
         <v>0</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7">
+        <v>759</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M14" s="7">
-        <v>0</v>
-      </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>171</v>
@@ -3800,10 +3800,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3815,10 +3815,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3830,10 +3830,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>507</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3847,46 +3847,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="D16" s="7">
-        <v>165914</v>
+        <v>204377</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="I16" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="N16" s="7">
-        <v>321911</v>
+        <v>411797</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>174</v>
@@ -3901,49 +3901,49 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1359</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="7">
         <v>1</v>
-      </c>
-      <c r="D17" s="7">
-        <v>759</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
       </c>
       <c r="I17" s="7">
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N17" s="7">
-        <v>759</v>
+        <v>1359</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>178</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>179</v>
@@ -3955,10 +3955,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>166673</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -3970,10 +3970,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -3985,10 +3985,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N18" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4056,7 +4056,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -4080,13 +4080,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>

--- a/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFFC9793-165F-421F-A105-EFB7A21AD8DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8F35BA-F359-41C8-A7F8-2C6046B1F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E05359AD-3506-4011-A17B-1E7095E21DF1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03F9AAC4-2C53-4335-B61B-68EB3B4E715C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="193">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>96,66%</t>
+    <t>97,1%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -121,64 +136,64 @@
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>98,61%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
     <t>99,41%</t>
   </si>
   <si>
     <t>99,35%</t>
   </si>
   <si>
-    <t>98,03%</t>
+    <t>97,38%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
+    <t>99,05%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,58%</t>
+    <t>97,51%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -190,145 +205,169 @@
     <t>98,88%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>99,65%</t>
   </si>
   <si>
-    <t>98,04%</t>
+    <t>98,24%</t>
   </si>
   <si>
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,6%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,48%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,5%</t>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
   </si>
   <si>
     <t>99,71%</t>
   </si>
   <si>
+    <t>99,28%</t>
+  </si>
+  <si>
     <t>99,91%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
   </si>
   <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
     <t>93,43%</t>
   </si>
   <si>
     <t>91,77%</t>
   </si>
   <si>
-    <t>73,32%</t>
+    <t>75,63%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
   </si>
   <si>
     <t>97,84%</t>
   </si>
   <si>
-    <t>94,6%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>98,8%</t>
@@ -337,22 +376,25 @@
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>99,4%</t>
@@ -361,76 +403,76 @@
     <t>99,68%</t>
   </si>
   <si>
-    <t>98,39%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>95,67%</t>
+    <t>96,29%</t>
   </si>
   <si>
     <t>99,36%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>99,19%</t>
@@ -439,39 +481,27 @@
     <t>98,42%</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
   </si>
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
     <t>93,85%</t>
   </si>
   <si>
@@ -481,13 +511,13 @@
     <t>96,52%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>98,84%</t>
@@ -499,16 +529,16 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>99,43%</t>
@@ -517,22 +547,16 @@
     <t>99,86%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>99,26%</t>
@@ -541,49 +565,46 @@
     <t>99,76%</t>
   </si>
   <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>99,34%</t>
   </si>
   <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,11%</t>
+    <t>99,08%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -592,22 +613,10 @@
     <t>99,81%</t>
   </si>
   <si>
+    <t>99,55%</t>
+  </si>
+  <si>
     <t>99,95%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
 </sst>
 </file>
@@ -618,7 +627,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -714,39 +723,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -798,7 +807,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -909,13 +918,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -924,6 +926,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -988,19 +997,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{228FB335-9451-4B95-9D3E-F94C425CB66C}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D023031-938A-49AB-890F-31E9364B0174}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1117,10 +1146,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25444</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,34 +1161,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22724</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48168</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1168,10 +1197,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25444</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1183,34 +1212,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22724</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1225,13 +1254,13 @@
         <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>29</v>
@@ -1240,13 +1269,13 @@
         <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>62</v>
@@ -1255,13 +1284,13 @@
         <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1272,49 +1301,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>126960</v>
+        <v>673</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>116002</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>242962</v>
+        <v>673</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1323,49 +1352,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D8" s="7">
-        <v>673</v>
+        <v>126960</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>116002</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>366</v>
       </c>
       <c r="N8" s="7">
-        <v>673</v>
+        <v>242962</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1380,13 +1409,13 @@
         <v>127633</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>174</v>
@@ -1395,13 +1424,13 @@
         <v>116002</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>367</v>
@@ -1410,13 +1439,13 @@
         <v>243635</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1427,49 +1456,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>322</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>212142</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>310</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>193887</v>
+        <v>1276</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M10" s="7">
-        <v>632</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>406029</v>
+        <v>1276</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1478,49 +1507,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>212142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
+        <v>310</v>
       </c>
       <c r="I11" s="7">
-        <v>1276</v>
+        <v>193887</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
+        <v>632</v>
       </c>
       <c r="N11" s="7">
-        <v>1276</v>
+        <v>406029</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1535,13 +1564,13 @@
         <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>312</v>
@@ -1550,13 +1579,13 @@
         <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>634</v>
@@ -1565,13 +1594,13 @@
         <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1582,49 +1611,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>231</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>149015</v>
+        <v>642</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>137817</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>460</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>286832</v>
+        <v>642</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1633,49 +1662,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>231</v>
       </c>
       <c r="D14" s="7">
-        <v>642</v>
+        <v>149015</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>137817</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>460</v>
       </c>
       <c r="N14" s="7">
-        <v>642</v>
+        <v>286832</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1690,13 +1719,13 @@
         <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>229</v>
@@ -1705,13 +1734,13 @@
         <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>461</v>
@@ -1720,13 +1749,13 @@
         <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,10 +1766,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>203450</v>
+        <v>4374</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>56</v>
@@ -1752,25 +1781,25 @@
         <v>58</v>
       </c>
       <c r="H16" s="7">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>208582</v>
+        <v>733</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M16" s="7">
-        <v>573</v>
+        <v>7</v>
       </c>
       <c r="N16" s="7">
-        <v>412031</v>
+        <v>5108</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>61</v>
@@ -1788,10 +1817,10 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>300</v>
       </c>
       <c r="D17" s="7">
-        <v>4374</v>
+        <v>203450</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>64</v>
@@ -1803,25 +1832,25 @@
         <v>66</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>273</v>
       </c>
       <c r="I17" s="7">
-        <v>733</v>
+        <v>208582</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>7</v>
+        <v>573</v>
       </c>
       <c r="N17" s="7">
-        <v>5108</v>
+        <v>412031</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>69</v>
@@ -1845,13 +1874,13 @@
         <v>207824</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>274</v>
@@ -1860,13 +1889,13 @@
         <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>580</v>
@@ -1875,13 +1904,13 @@
         <v>417139</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1892,10 +1921,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1078</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>717011</v>
+        <v>5689</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>72</v>
@@ -1904,37 +1933,37 @@
         <v>73</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H19" s="7">
-        <v>1015</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>679012</v>
+        <v>2009</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M19" s="7">
-        <v>2093</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>1396023</v>
+        <v>7698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1943,49 +1972,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1078</v>
       </c>
       <c r="D20" s="7">
-        <v>5689</v>
+        <v>717011</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>1015</v>
       </c>
       <c r="I20" s="7">
-        <v>2009</v>
+        <v>679012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>2093</v>
       </c>
       <c r="N20" s="7">
-        <v>7698</v>
+        <v>1396023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2029,13 @@
         <v>722700</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -2015,13 +2044,13 @@
         <v>681021</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2104</v>
@@ -2030,13 +2059,18 @@
         <v>1403721</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2057,8 +2091,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716634F3-36EE-4CD6-91FD-CB992A621379}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE8C7E-421B-49B4-BF09-BED33A75347C}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2074,7 +2108,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2175,49 +2209,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25455</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>20532</v>
+        <v>1841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>45987</v>
+        <v>1841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2226,49 +2260,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25455</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>1841</v>
+        <v>20532</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>1841</v>
+        <v>45987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2317,13 @@
         <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -2298,13 +2332,13 @@
         <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -2313,13 +2347,13 @@
         <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,49 +2364,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>125670</v>
+        <v>2780</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>114018</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>97</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="M7" s="7">
-        <v>337</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>239688</v>
+        <v>2780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2381,49 +2415,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
-        <v>2780</v>
+        <v>125670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>114018</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>337</v>
       </c>
       <c r="N8" s="7">
-        <v>2780</v>
+        <v>239687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2438,13 +2472,13 @@
         <v>128450</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2453,28 +2487,28 @@
         <v>114018</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>341</v>
       </c>
       <c r="N9" s="7">
-        <v>242468</v>
+        <v>242467</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,49 +2519,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>321</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>221978</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
-        <v>316</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>204742</v>
+        <v>656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
-        <v>637</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>426720</v>
+        <v>656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,49 +2570,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>221977</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>110</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>316</v>
       </c>
       <c r="I11" s="7">
-        <v>656</v>
+        <v>204742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>17</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>637</v>
       </c>
       <c r="N11" s="7">
-        <v>656</v>
+        <v>426720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>123</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,16 +2624,16 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>221977</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2608,13 +2642,13 @@
         <v>205398</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>638</v>
@@ -2623,13 +2657,13 @@
         <v>427376</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2640,49 +2674,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>253</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>163936</v>
+        <v>2049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>116</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>154839</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>494</v>
+        <v>2</v>
       </c>
       <c r="N13" s="7">
-        <v>318775</v>
+        <v>2049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2691,49 +2725,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>253</v>
       </c>
       <c r="D14" s="7">
-        <v>2049</v>
+        <v>163936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>154839</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="N14" s="7">
-        <v>2049</v>
+        <v>318775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>122</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2748,13 +2782,13 @@
         <v>165985</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>241</v>
@@ -2763,13 +2797,13 @@
         <v>154839</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>496</v>
@@ -2778,13 +2812,13 @@
         <v>320824</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2795,49 +2829,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>279</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>205839</v>
+        <v>1243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="H16" s="7">
-        <v>274</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>209554</v>
+        <v>746</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
-        <v>553</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>415393</v>
+        <v>1989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>108</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,49 +2880,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>279</v>
       </c>
       <c r="D17" s="7">
-        <v>1243</v>
+        <v>205839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>136</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>274</v>
       </c>
       <c r="I17" s="7">
-        <v>746</v>
+        <v>209554</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>128</v>
+        <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>553</v>
       </c>
       <c r="N17" s="7">
-        <v>1989</v>
+        <v>415393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2937,13 @@
         <v>207082</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>275</v>
@@ -2918,13 +2952,13 @@
         <v>210300</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>556</v>
@@ -2933,13 +2967,13 @@
         <v>417382</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,49 +2984,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1059</v>
+        <v>8</v>
       </c>
       <c r="D19" s="7">
-        <v>742877</v>
+        <v>6072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="H19" s="7">
-        <v>1014</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>703685</v>
+        <v>3243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="M19" s="7">
-        <v>2073</v>
+        <v>12</v>
       </c>
       <c r="N19" s="7">
-        <v>1446562</v>
+        <v>9315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,49 +3035,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>1059</v>
       </c>
       <c r="D20" s="7">
-        <v>6072</v>
+        <v>742877</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
-        <v>4</v>
+        <v>1014</v>
       </c>
       <c r="I20" s="7">
-        <v>3243</v>
+        <v>703685</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>2073</v>
       </c>
       <c r="N20" s="7">
-        <v>9315</v>
+        <v>1446562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +3092,13 @@
         <v>748949</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1018</v>
@@ -3073,13 +3107,13 @@
         <v>706928</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2085</v>
@@ -3088,13 +3122,18 @@
         <v>1455877</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3115,8 +3154,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4385B857-17A4-4BB3-B10D-B493C54F8C2A}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2A0A53-64F8-43CF-83F5-42C2BE1D8A66}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3132,7 +3171,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3233,49 +3272,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>25574</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>144</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>22527</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>145</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>48101</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,49 +3323,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>25574</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>154</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>147</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>22527</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>48101</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3341,13 +3380,13 @@
         <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -3356,13 +3395,13 @@
         <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>54</v>
@@ -3371,13 +3410,13 @@
         <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,49 +3427,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>122502</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>111180</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>233682</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,49 +3478,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>122502</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>160</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>111180</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>233682</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3535,13 @@
         <v>122502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>163</v>
@@ -3511,13 +3550,13 @@
         <v>111180</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>328</v>
@@ -3526,13 +3565,13 @@
         <v>233682</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,49 +3582,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>331</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>223741</v>
+        <v>618</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>334</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>207247</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
-        <v>665</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>430988</v>
+        <v>618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,49 +3633,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>331</v>
       </c>
       <c r="D11" s="7">
-        <v>618</v>
+        <v>223741</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>207247</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
+        <v>665</v>
       </c>
       <c r="N11" s="7">
-        <v>618</v>
+        <v>430988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3690,13 @@
         <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>334</v>
@@ -3666,13 +3705,13 @@
         <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>666</v>
@@ -3681,13 +3720,13 @@
         <v>431606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,49 +3737,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>165914</v>
+        <v>759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="H13" s="7">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>155997</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>170</v>
       </c>
       <c r="M13" s="7">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>321911</v>
+        <v>759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,49 +3788,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>247</v>
       </c>
       <c r="D14" s="7">
-        <v>759</v>
+        <v>165914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>155997</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>1</v>
+        <v>506</v>
       </c>
       <c r="N14" s="7">
-        <v>759</v>
+        <v>321911</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3845,13 @@
         <v>166673</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>259</v>
@@ -3821,13 +3860,13 @@
         <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>507</v>
@@ -3836,13 +3875,13 @@
         <v>322670</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,25 +3892,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>288</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>204377</v>
+        <v>1359</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>280</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>207420</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
@@ -3883,19 +3922,19 @@
         <v>11</v>
       </c>
       <c r="M16" s="7">
-        <v>568</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>411797</v>
+        <v>1359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>11</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,25 +3943,25 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D17" s="7">
-        <v>1359</v>
+        <v>204377</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>179</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>207420</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
@@ -3934,19 +3973,19 @@
         <v>17</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>568</v>
       </c>
       <c r="N17" s="7">
-        <v>1359</v>
+        <v>411797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>17</v>
+        <v>180</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +4000,13 @@
         <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>281</v>
@@ -3976,13 +4015,13 @@
         <v>207420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>571</v>
@@ -3991,13 +4030,13 @@
         <v>413156</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,25 +4047,25 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1061</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>742108</v>
+        <v>2736</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H19" s="7">
-        <v>1060</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>704371</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>11</v>
@@ -4038,19 +4077,19 @@
         <v>11</v>
       </c>
       <c r="M19" s="7">
-        <v>2121</v>
+        <v>5</v>
       </c>
       <c r="N19" s="7">
-        <v>1446479</v>
+        <v>2736</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,25 +4098,25 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>1061</v>
       </c>
       <c r="D20" s="7">
-        <v>2736</v>
+        <v>742108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>1060</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>704371</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>17</v>
@@ -4089,19 +4128,19 @@
         <v>17</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>2121</v>
       </c>
       <c r="N20" s="7">
-        <v>2736</v>
+        <v>1446479</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4116,13 +4155,13 @@
         <v>744844</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>1061</v>
@@ -4131,13 +4170,13 @@
         <v>704371</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>2126</v>
@@ -4146,13 +4185,18 @@
         <v>1449215</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D8F35BA-F359-41C8-A7F8-2C6046B1F07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F17F00-5B04-47EF-9CE5-C0FA0A5442F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03F9AAC4-2C53-4335-B61B-68EB3B4E715C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A2F21EF-62E8-440F-BAB2-69EB7198EE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>96,96%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,9%</t>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -127,7 +127,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>97,1%</t>
+    <t>97,54%</t>
   </si>
   <si>
     <t>98,9%</t>
@@ -139,7 +139,7 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,59%</t>
@@ -148,13 +148,13 @@
     <t>0,65%</t>
   </si>
   <si>
-    <t>2,62%</t>
+    <t>1,97%</t>
   </si>
   <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>0,95%</t>
+    <t>0,94%</t>
   </si>
   <si>
     <t>99,41%</t>
@@ -163,22 +163,22 @@
     <t>99,35%</t>
   </si>
   <si>
-    <t>97,38%</t>
+    <t>98,03%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
-    <t>2,49%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>0,83%</t>
@@ -187,13 +187,13 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>1,12%</t>
+    <t>1,27%</t>
   </si>
   <si>
     <t>99,57%</t>
   </si>
   <si>
-    <t>97,51%</t>
+    <t>97,53%</t>
   </si>
   <si>
     <t>99,17%</t>
@@ -202,7 +202,7 @@
     <t>99,78%</t>
   </si>
   <si>
-    <t>98,88%</t>
+    <t>98,73%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -211,10 +211,10 @@
     <t>2,1%</t>
   </si>
   <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>0,35%</t>
@@ -229,16 +229,16 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>97,9%</t>
   </si>
   <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
   </si>
   <si>
     <t>99,65%</t>
@@ -250,7 +250,7 @@
     <t>98,78%</t>
   </si>
   <si>
-    <t>97,53%</t>
+    <t>97,59%</t>
   </si>
   <si>
     <t>99,48%</t>
@@ -262,7 +262,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,54%</t>
+    <t>1,47%</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -271,19 +271,16 @@
     <t>0,09%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>0,94%</t>
+    <t>1,0%</t>
   </si>
   <si>
     <t>99,21%</t>
   </si>
   <si>
-    <t>98,46%</t>
+    <t>98,53%</t>
   </si>
   <si>
     <t>99,64%</t>
@@ -292,16 +289,13 @@
     <t>99,71%</t>
   </si>
   <si>
-    <t>99,28%</t>
-  </si>
-  <si>
     <t>99,91%</t>
   </si>
   <si>
     <t>99,45%</t>
   </si>
   <si>
-    <t>99,06%</t>
+    <t>99,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -316,13 +310,13 @@
     <t>8,23%</t>
   </si>
   <si>
-    <t>24,37%</t>
+    <t>28,3%</t>
   </si>
   <si>
     <t>3,85%</t>
   </si>
   <si>
-    <t>13,19%</t>
+    <t>13,34%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -331,22 +325,22 @@
     <t>91,77%</t>
   </si>
   <si>
-    <t>75,63%</t>
+    <t>71,7%</t>
   </si>
   <si>
     <t>96,15%</t>
   </si>
   <si>
-    <t>86,81%</t>
+    <t>86,66%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>1,2%</t>
@@ -355,241 +349,244 @@
     <t>1,15%</t>
   </si>
   <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
     <t>0,33%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>99,67%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
+    <t>98,99%</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>0,92%</t>
+    <t>0,87%</t>
   </si>
   <si>
     <t>0,19%</t>
@@ -598,13 +595,10 @@
     <t>0,05%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>99,9%</t>
@@ -613,7 +607,7 @@
     <t>99,81%</t>
   </si>
   <si>
-    <t>99,55%</t>
+    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -1028,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D023031-938A-49AB-890F-31E9364B0174}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F147D-FFF3-480E-93C0-81A3A9979B0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1948,7 +1942,7 @@
         <v>76</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -1957,13 +1951,13 @@
         <v>7698</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,13 +1972,13 @@
         <v>717011</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>1015</v>
@@ -1993,13 +1987,13 @@
         <v>679012</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M20" s="7">
         <v>2093</v>
@@ -2008,13 +2002,13 @@
         <v>1396023</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2070,7 +2064,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2091,7 +2085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCE8C7E-421B-49B4-BF09-BED33A75347C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A0E6E-8189-4EA9-8249-22B9E5F17D82}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2108,7 +2102,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2221,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -2230,13 +2224,13 @@
         <v>1841</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2245,13 +2239,13 @@
         <v>1841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2269,7 +2263,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2281,10 +2275,10 @@
         <v>20532</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>17</v>
@@ -2296,10 +2290,10 @@
         <v>45987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>17</v>
@@ -2370,13 +2364,13 @@
         <v>2780</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2391,7 +2385,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -2400,13 +2394,13 @@
         <v>2780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,13 +2415,13 @@
         <v>125670</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -2439,7 +2433,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2451,13 +2445,13 @@
         <v>239687</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2531,7 +2525,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -2540,13 +2534,13 @@
         <v>656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -2555,13 +2549,13 @@
         <v>656</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2567,13 @@
         <v>321</v>
       </c>
       <c r="D11" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -2591,10 +2585,10 @@
         <v>204742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>17</v>
@@ -2606,10 +2600,10 @@
         <v>426720</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -2624,7 +2618,7 @@
         <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>221977</v>
+        <v>221978</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
@@ -2680,13 +2674,13 @@
         <v>2049</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2710,13 +2704,13 @@
         <v>2049</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,10 +2725,10 @@
         <v>163936</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2749,7 +2743,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -2761,10 +2755,10 @@
         <v>318775</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -2835,13 +2829,13 @@
         <v>1243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -2856,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -2865,13 +2859,13 @@
         <v>1989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,10 +2880,10 @@
         <v>205839</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -2904,7 +2898,7 @@
         <v>67</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>17</v>
@@ -2916,13 +2910,13 @@
         <v>415393</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2984,13 @@
         <v>6072</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>59</v>
+        <v>137</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3005,13 +2999,13 @@
         <v>3243</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -3020,13 +3014,13 @@
         <v>9315</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,13 +3035,13 @@
         <v>742877</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>1014</v>
@@ -3056,13 +3050,13 @@
         <v>703685</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>2073</v>
@@ -3071,13 +3065,13 @@
         <v>1446562</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>30</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3154,7 +3148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2A0A53-64F8-43CF-83F5-42C2BE1D8A66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B4D86-96C7-47FE-BCC9-806F198CE480}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3439,7 +3433,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3454,7 +3448,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -3469,7 +3463,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,7 +3481,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3502,7 +3496,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3517,7 +3511,7 @@
         <v>17</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3594,7 +3588,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3609,7 +3603,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3618,13 +3612,13 @@
         <v>618</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,7 +3636,7 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -3657,7 +3651,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3669,10 +3663,10 @@
         <v>430988</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>84</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>17</v>
@@ -3743,13 +3737,13 @@
         <v>759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3764,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -3773,13 +3767,13 @@
         <v>759</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,10 +3788,10 @@
         <v>165914</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3812,7 +3806,7 @@
         <v>17</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
@@ -3824,10 +3818,10 @@
         <v>321911</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3904,7 +3898,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>176</v>
+        <v>63</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -3928,7 +3922,7 @@
         <v>1359</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>105</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
@@ -3952,7 +3946,7 @@
         <v>178</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -3979,7 +3973,7 @@
         <v>411797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>180</v>
@@ -4053,13 +4047,13 @@
         <v>2736</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4083,13 +4077,13 @@
         <v>2736</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4104,13 +4098,13 @@
         <v>742108</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H20" s="7">
         <v>1060</v>
@@ -4134,13 +4128,13 @@
         <v>1446479</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,7 +4190,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP1012-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F17F00-5B04-47EF-9CE5-C0FA0A5442F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E89A1A6-B6BF-4209-A6C2-ADC6BAE02172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3A2F21EF-62E8-440F-BAB2-69EB7198EE2D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{831D0F3A-E159-492F-95CF-39582C7DAD79}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="174">
   <si>
     <t>Menores según si padecen ceguera o problemas de visión en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,520 +100,463 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>94,39%</t>
+    <t>99,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,72%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
   </si>
   <si>
     <t>99,64%</t>
   </si>
   <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2012 (Tasa respuesta: 99,33%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>99,89%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen ceguera o problemas de visión en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
+    <t>99,11%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -1022,8 +971,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A2F147D-FFF3-480E-93C0-81A3A9979B0E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D868BB7E-DD27-45D5-980B-4EFDBB1512D2}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1155,82 +1104,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>673</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D5" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>225</v>
       </c>
       <c r="I5" s="7">
-        <v>22724</v>
+        <v>152404</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>62</v>
+        <v>428</v>
       </c>
       <c r="N5" s="7">
-        <v>48168</v>
+        <v>291130</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1242,72 +1191,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>673</v>
+        <v>1276</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1322,73 +1271,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>673</v>
+        <v>1276</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>192</v>
+        <v>310</v>
       </c>
       <c r="D8" s="7">
-        <v>126960</v>
+        <v>193887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I8" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>632</v>
+      </c>
+      <c r="N8" s="7">
+        <v>406029</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="7">
-        <v>366</v>
-      </c>
-      <c r="N8" s="7">
-        <v>242962</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1397,54 +1346,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1462,88 +1411,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>1276</v>
+        <v>642</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1276</v>
+        <v>642</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D11" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>231</v>
+      </c>
+      <c r="I11" s="7">
+        <v>149015</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>310</v>
-      </c>
-      <c r="I11" s="7">
-        <v>193887</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" s="7">
-        <v>632</v>
+        <v>460</v>
       </c>
       <c r="N11" s="7">
-        <v>406029</v>
+        <v>286832</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,54 +1501,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1608,97 +1557,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>642</v>
+        <v>733</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>4374</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N13" s="7">
-        <v>642</v>
+        <v>5108</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D14" s="7">
-        <v>149015</v>
+        <v>208582</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="I14" s="7">
-        <v>137817</v>
+        <v>203450</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>460</v>
+        <v>573</v>
       </c>
       <c r="N14" s="7">
-        <v>286832</v>
+        <v>412031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,153 +1656,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>306</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207824</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>580</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>417139</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>4374</v>
+        <v>2009</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>733</v>
+        <v>5689</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M16" s="7">
         <v>11</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="7">
-        <v>7</v>
-      </c>
       <c r="N16" s="7">
-        <v>5108</v>
+        <v>7698</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>300</v>
+        <v>1015</v>
       </c>
       <c r="D17" s="7">
-        <v>203450</v>
+        <v>679012</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>1078</v>
       </c>
       <c r="I17" s="7">
-        <v>208582</v>
+        <v>717011</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="M17" s="7">
-        <v>573</v>
+        <v>2093</v>
       </c>
       <c r="N17" s="7">
-        <v>412031</v>
+        <v>1396023</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,217 +1811,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>306</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207824</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1086</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722700</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>580</v>
+        <v>2104</v>
       </c>
       <c r="N18" s="7">
-        <v>417139</v>
+        <v>1403721</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>5689</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2009</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7698</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1078</v>
-      </c>
-      <c r="D20" s="7">
-        <v>717011</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I20" s="7">
-        <v>679012</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2093</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1396023</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2085,8 +1878,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0A0E6E-8189-4EA9-8249-22B9E5F17D82}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D7D8A1-3F27-4DF9-9645-5361A7528740}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2102,7 +1895,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2203,100 +1996,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1841</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="7">
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2780</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="7">
+        <v>6</v>
+      </c>
+      <c r="N4" s="7">
+        <v>4621</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1841</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7">
-        <v>1841</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>183</v>
       </c>
       <c r="D5" s="7">
-        <v>25455</v>
+        <v>134550</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>20532</v>
+        <v>151125</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M5" s="7">
+        <v>389</v>
+      </c>
+      <c r="N5" s="7">
+        <v>285674</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="7">
-        <v>52</v>
-      </c>
-      <c r="N5" s="7">
-        <v>45987</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2305,72 +2098,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>136391</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>210</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>153905</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>395</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>290295</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>2780</v>
+        <v>656</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2385,73 +2178,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>2780</v>
+        <v>656</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>178</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>125670</v>
+        <v>204742</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="7">
+        <v>321</v>
+      </c>
+      <c r="I8" s="7">
+        <v>221977</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="7">
+        <v>637</v>
+      </c>
+      <c r="N8" s="7">
+        <v>426720</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H8" s="7">
-        <v>159</v>
-      </c>
-      <c r="I8" s="7">
-        <v>114018</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="M8" s="7">
-        <v>337</v>
-      </c>
-      <c r="N8" s="7">
-        <v>239687</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2460,54 +2253,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>182</v>
+        <v>317</v>
       </c>
       <c r="D9" s="7">
-        <v>128450</v>
+        <v>205398</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>159</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>114018</v>
+        <v>221977</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>341</v>
+        <v>638</v>
       </c>
       <c r="N9" s="7">
-        <v>242467</v>
+        <v>427376</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2525,88 +2318,88 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>656</v>
+        <v>2049</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>656</v>
+        <v>2049</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D11" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="7">
+        <v>253</v>
+      </c>
+      <c r="I11" s="7">
+        <v>163936</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>316</v>
-      </c>
-      <c r="I11" s="7">
-        <v>204742</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M11" s="7">
-        <v>637</v>
+        <v>494</v>
       </c>
       <c r="N11" s="7">
-        <v>426720</v>
+        <v>318775</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,153 +2408,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>241</v>
       </c>
       <c r="D12" s="7">
-        <v>221978</v>
+        <v>154839</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>317</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205398</v>
+        <v>165985</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>638</v>
+        <v>496</v>
       </c>
       <c r="N12" s="7">
-        <v>427376</v>
+        <v>320824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>2049</v>
+        <v>746</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1243</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>2049</v>
+        <v>1989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="D14" s="7">
-        <v>163936</v>
+        <v>209554</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="I14" s="7">
-        <v>154839</v>
+        <v>205839</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>494</v>
+        <v>553</v>
       </c>
       <c r="N14" s="7">
-        <v>318775</v>
+        <v>415393</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2770,153 +2563,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D15" s="7">
-        <v>165985</v>
+        <v>210300</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="I15" s="7">
-        <v>154839</v>
+        <v>207082</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="N15" s="7">
-        <v>320824</v>
+        <v>417382</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>1243</v>
+        <v>3243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I16" s="7">
-        <v>746</v>
+        <v>6072</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>1989</v>
+        <v>9315</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>279</v>
+        <v>1014</v>
       </c>
       <c r="D17" s="7">
-        <v>205839</v>
+        <v>703685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1059</v>
+      </c>
+      <c r="I17" s="7">
+        <v>742877</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H17" s="7">
-        <v>274</v>
-      </c>
-      <c r="I17" s="7">
-        <v>209554</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="M17" s="7">
-        <v>553</v>
+        <v>2073</v>
       </c>
       <c r="N17" s="7">
-        <v>415393</v>
+        <v>1446562</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,217 +2718,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>281</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207082</v>
+        <v>706928</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>275</v>
+        <v>1067</v>
       </c>
       <c r="I18" s="7">
-        <v>210300</v>
+        <v>748949</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>556</v>
+        <v>2085</v>
       </c>
       <c r="N18" s="7">
-        <v>417382</v>
+        <v>1455877</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>8</v>
-      </c>
-      <c r="D19" s="7">
-        <v>6072</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3243</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="M19" s="7">
-        <v>12</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9315</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742877</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1014</v>
-      </c>
-      <c r="I20" s="7">
-        <v>703685</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2073</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1446562</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1067</v>
-      </c>
-      <c r="D21" s="7">
-        <v>748949</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>706928</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2085</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1455877</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3148,8 +2785,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A4B4D86-96C7-47FE-BCC9-806F198CE480}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D382C0-2FC8-4B4B-AF2B-238E618756BF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3165,7 +2802,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3278,7 +2915,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3293,7 +2930,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3308,58 +2945,58 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D5" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>195</v>
+      </c>
+      <c r="I5" s="7">
+        <v>148076</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>22527</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="K5" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>382</v>
+      </c>
+      <c r="N5" s="7">
+        <v>281783</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="7">
-        <v>54</v>
-      </c>
-      <c r="N5" s="7">
-        <v>48101</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="P5" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,54 +3005,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>148076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>281783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3433,85 +3070,85 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>618</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>618</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D8" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>111180</v>
+        <v>223741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="N8" s="7">
-        <v>233682</v>
+        <v>430988</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>19</v>
@@ -3523,153 +3160,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>233682</v>
+        <v>431606</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="7">
-        <v>618</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>759</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>618</v>
+        <v>759</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D11" s="7">
-        <v>223741</v>
+        <v>155997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>207247</v>
+        <v>165914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>665</v>
+        <v>506</v>
       </c>
       <c r="N11" s="7">
-        <v>430988</v>
+        <v>321911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,54 +3315,54 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>248</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>166673</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>666</v>
+        <v>507</v>
       </c>
       <c r="N12" s="7">
-        <v>431606</v>
+        <v>322670</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3734,97 +3371,97 @@
         <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>759</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>0</v>
+        <v>1359</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>759</v>
+        <v>1359</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>165914</v>
+        <v>207420</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" s="7">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="I14" s="7">
-        <v>155997</v>
+        <v>204377</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>17</v>
+        <v>160</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="N14" s="7">
-        <v>321911</v>
+        <v>411797</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,153 +3470,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="D15" s="7">
-        <v>166673</v>
+        <v>207420</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>571</v>
       </c>
       <c r="N15" s="7">
-        <v>322670</v>
+        <v>413156</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>1359</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2736</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>11</v>
+        <v>165</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>11</v>
+        <v>166</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N16" s="7">
-        <v>1359</v>
+        <v>2736</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>288</v>
+        <v>1060</v>
       </c>
       <c r="D17" s="7">
-        <v>204377</v>
+        <v>704371</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>178</v>
+        <v>19</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>280</v>
+        <v>1061</v>
       </c>
       <c r="I17" s="7">
-        <v>207420</v>
+        <v>742108</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>169</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="M17" s="7">
-        <v>568</v>
+        <v>2121</v>
       </c>
       <c r="N17" s="7">
-        <v>411797</v>
+        <v>1446479</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,217 +3625,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1061</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>704371</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>281</v>
+        <v>1065</v>
       </c>
       <c r="I18" s="7">
-        <v>207420</v>
+        <v>744844</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>571</v>
+        <v>2126</v>
       </c>
       <c r="N18" s="7">
-        <v>413156</v>
+        <v>1449215</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2736</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M19" s="7">
-        <v>5</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2736</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D20" s="7">
-        <v>742108</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I20" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2121</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1446479</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D21" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I21" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>86</v>
+      <c r="A19" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
